--- a/Excel2Unity/Excel/InnstoryData/ItemCards.xlsx
+++ b/Excel2Unity/Excel/InnstoryData/ItemCards.xlsx
@@ -16,36 +16,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>卡牌ID</t>
   </si>
   <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>称号</t>
-  </si>
-  <si>
-    <t>力量</t>
-  </si>
-  <si>
-    <t>洞察</t>
-  </si>
-  <si>
-    <t>体质</t>
-  </si>
-  <si>
-    <t>意志</t>
-  </si>
-  <si>
-    <t>生命</t>
-  </si>
-  <si>
-    <t>理性</t>
-  </si>
-  <si>
-    <t>幸运</t>
+    <t>卡牌名称</t>
+  </si>
+  <si>
+    <t>效果</t>
+  </si>
+  <si>
+    <t>激活效果</t>
+  </si>
+  <si>
+    <t>耐久</t>
+  </si>
+  <si>
+    <t>充能</t>
+  </si>
+  <si>
+    <t>卡牌说明</t>
   </si>
   <si>
     <t>CS</t>
@@ -66,46 +57,115 @@
     <t>ID</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>insight</t>
-  </si>
-  <si>
-    <t>physique</t>
-  </si>
-  <si>
-    <t>determination</t>
-  </si>
-  <si>
-    <t>hp</t>
-  </si>
-  <si>
-    <t>reason</t>
-  </si>
-  <si>
-    <t>lucky</t>
+    <t>cardEffect</t>
+  </si>
+  <si>
+    <t>activeEffect</t>
+  </si>
+  <si>
+    <t>Durability</t>
+  </si>
+  <si>
+    <t>ChargePower</t>
+  </si>
+  <si>
+    <t>description</t>
   </si>
   <si>
     <t>KEY</t>
   </si>
   <si>
-    <t>达伦·琼斯</t>
-  </si>
-  <si>
-    <t>罪犯，佣兵</t>
-  </si>
-  <si>
-    <t>布伦达·威尔逊</t>
-  </si>
-  <si>
-    <t>深潜者，祭祀</t>
+    <t>匕首</t>
+  </si>
+  <si>
+    <t>力量+1；闪避突袭：力量+3</t>
+  </si>
+  <si>
+    <t>消防斧</t>
+  </si>
+  <si>
+    <t>力量+1</t>
+  </si>
+  <si>
+    <t>力量+2</t>
+  </si>
+  <si>
+    <t>海潮石法杖</t>
+  </si>
+  <si>
+    <t>洞察+1</t>
+  </si>
+  <si>
+    <t>洞察+2</t>
+  </si>
+  <si>
+    <t>达贡石雕</t>
+  </si>
+  <si>
+    <t>知识+1</t>
+  </si>
+  <si>
+    <t>贝壳巨盾</t>
+  </si>
+  <si>
+    <t>体质+3</t>
+  </si>
+  <si>
+    <t>护身符</t>
+  </si>
+  <si>
+    <t>意志+3</t>
+  </si>
+  <si>
+    <t>《守护祷文》</t>
+  </si>
+  <si>
+    <t>意志+2，体质+2</t>
+  </si>
+  <si>
+    <t>海妖之螺</t>
+  </si>
+  <si>
+    <t>意志-2</t>
+  </si>
+  <si>
+    <t>召唤一个龙虾人。</t>
+  </si>
+  <si>
+    <t>绷带</t>
+  </si>
+  <si>
+    <t>治疗5点伤害。</t>
+  </si>
+  <si>
+    <t>镇定剂</t>
+  </si>
+  <si>
+    <t>治疗5点恐惧。</t>
+  </si>
+  <si>
+    <t>兴奋剂</t>
+  </si>
+  <si>
+    <t>本回合剑+3，盾-1</t>
+  </si>
+  <si>
+    <t>海潮石块</t>
+  </si>
+  <si>
+    <t>本回合月+2</t>
+  </si>
+  <si>
+    <t>威士忌</t>
+  </si>
+  <si>
+    <t>治疗3点恐惧，本回合意志+3</t>
+  </si>
+  <si>
+    <t>黄金雕像</t>
+  </si>
+  <si>
+    <t>抽取2张诡计卡，受到3点恐惧</t>
   </si>
 </sst>
 </file>
@@ -115,8 +175,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -128,7 +188,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,6 +204,50 @@
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -149,10 +259,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -172,50 +306,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -225,41 +315,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -272,13 +331,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,13 +352,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,169 +538,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,6 +656,41 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,41 +710,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -669,6 +734,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -683,164 +757,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -880,6 +945,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1272,12 +1340,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1285,15 +1353,14 @@
     <col min="1" max="1" width="21.125" customWidth="1"/>
     <col min="2" max="3" width="27" customWidth="1"/>
     <col min="4" max="6" width="25.625" customWidth="1"/>
-    <col min="7" max="8" width="24.375" customWidth="1"/>
-    <col min="9" max="9" width="38.5" customWidth="1"/>
-    <col min="10" max="11" width="41.375" customWidth="1"/>
-    <col min="12" max="12" width="50.125" customWidth="1"/>
-    <col min="13" max="13" width="42.125" customWidth="1"/>
-    <col min="14" max="15" width="52.25" customWidth="1"/>
+    <col min="7" max="7" width="24.375" customWidth="1"/>
+    <col min="8" max="8" width="41.375" customWidth="1"/>
+    <col min="9" max="9" width="50.125" customWidth="1"/>
+    <col min="10" max="10" width="42.125" customWidth="1"/>
+    <col min="11" max="12" width="52.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:15">
+    <row r="1" s="1" customFormat="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1315,135 +1382,97 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:15">
+    </row>
+    <row r="2" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:12">
       <c r="A2" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>10</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:15">
+    </row>
+    <row r="3" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:12">
       <c r="A3" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>13</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:15">
+    </row>
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:12">
       <c r="A4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="G4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>24</v>
-      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:15">
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:12">
       <c r="A5" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1456,115 +1485,249 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:15">
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:12">
       <c r="A6" s="13">
         <v>1</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="13">
+        <v>3</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:12">
+      <c r="A7" s="15">
+        <v>2</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="15">
+        <v>2</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="15">
+        <v>3</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="13">
+        <v>4</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="13">
+      <c r="C9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="15">
+        <v>5</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="15">
         <v>6</v>
       </c>
-      <c r="E6" s="13">
+      <c r="B11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11">
         <v>2</v>
       </c>
-      <c r="F6" s="13">
-        <v>6</v>
-      </c>
-      <c r="G6" s="13">
-        <v>4</v>
-      </c>
-      <c r="H6" s="13">
-        <v>24</v>
-      </c>
-      <c r="I6" s="13">
-        <v>18</v>
-      </c>
-      <c r="J6" s="13">
-        <v>4</v>
-      </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="1:15">
-      <c r="A7" s="14">
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="13">
+        <v>7</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="15">
+        <v>8</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13">
         <v>2</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="14">
-        <v>3</v>
-      </c>
-      <c r="E7" s="14">
-        <v>6</v>
-      </c>
-      <c r="F7" s="14">
-        <v>4</v>
-      </c>
-      <c r="G7" s="13">
-        <v>6</v>
-      </c>
-      <c r="H7" s="13">
-        <v>20</v>
-      </c>
-      <c r="I7" s="13">
-        <v>22</v>
-      </c>
-      <c r="J7" s="13">
-        <v>3</v>
-      </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-    </row>
-    <row r="9" spans="12:12">
-      <c r="L9" s="15"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="13">
+        <v>9</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="15">
+        <v>10</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="15">
+        <v>11</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="13">
+        <v>12</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="15">
+        <v>13</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="15">
+        <v>14</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="13"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="$A4:$XFD4">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4">
+  <conditionalFormatting sqref="L4">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O3">
+  <conditionalFormatting sqref="L2:L3">
     <cfRule type="cellIs" priority="2" operator="equal">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:XFD3 A2:N3">
+  <conditionalFormatting sqref="A2:K3 M2:XFD3">
     <cfRule type="cellIs" priority="6" operator="equal">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P4:XFD4 A4:N4">
+  <conditionalFormatting sqref="A4:K4 M4:XFD4">
     <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="$A2:$XFD2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:G2 H2:XFD2">
       <formula1>"C,S,CS"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:H3 I3 J3 K3:XFD3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:G3 H3:XFD3">
       <formula1>"int,float,bool,string,list[int],list[float],list[string],map[int|int],map[int|float],map[int|string],map[string|int],map[string|float],map[string|string]"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="$A5:$XFD5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:G5 H5:XFD5">
       <formula1>"KEY"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel2Unity/Excel/InnstoryData/ItemCards.xlsx
+++ b/Excel2Unity/Excel/InnstoryData/ItemCards.xlsx
@@ -173,10 +173,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -194,7 +194,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,9 +255,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,29 +285,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -259,9 +301,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,69 +323,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -358,6 +358,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -370,25 +442,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,31 +490,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,109 +532,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,13 +654,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,8 +672,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,6 +704,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,47 +746,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,10 +757,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,133 +769,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1345,7 +1339,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1500,7 +1494,9 @@
       <c r="E6" s="13">
         <v>3</v>
       </c>
-      <c r="F6" s="13"/>
+      <c r="F6" s="13">
+        <v>0</v>
+      </c>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="16"/>
@@ -1524,7 +1520,9 @@
       <c r="E7" s="15">
         <v>2</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="16"/>
@@ -1545,6 +1543,9 @@
       <c r="D8" s="14" t="s">
         <v>26</v>
       </c>
+      <c r="E8" s="13">
+        <v>0</v>
+      </c>
       <c r="F8">
         <v>2</v>
       </c>
@@ -1562,12 +1563,15 @@
       <c r="D9" s="14" t="s">
         <v>26</v>
       </c>
+      <c r="E9" s="15">
+        <v>0</v>
+      </c>
       <c r="F9">
         <v>3</v>
       </c>
       <c r="I9" s="16"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="15">
         <v>5</v>
       </c>
@@ -1578,11 +1582,14 @@
       <c r="D10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="15">
         <v>6</v>
       </c>
@@ -1593,8 +1600,11 @@
       <c r="D11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="15">
         <v>2</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1610,6 +1620,9 @@
       <c r="D12" s="14" t="s">
         <v>34</v>
       </c>
+      <c r="E12" s="13">
+        <v>0</v>
+      </c>
       <c r="F12">
         <v>3</v>
       </c>
@@ -1627,11 +1640,14 @@
       <c r="D13" s="14" t="s">
         <v>37</v>
       </c>
+      <c r="E13" s="15">
+        <v>0</v>
+      </c>
       <c r="F13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:6">
       <c r="A14" s="13">
         <v>9</v>
       </c>
@@ -1641,8 +1657,14 @@
       <c r="C14" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="E14" s="13">
+        <v>0</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="15">
         <v>10</v>
       </c>
@@ -1652,8 +1674,14 @@
       <c r="C15" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="E15" s="15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="15">
         <v>11</v>
       </c>
@@ -1663,8 +1691,14 @@
       <c r="C16" s="14" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="E16" s="13">
+        <v>0</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="13">
         <v>12</v>
       </c>
@@ -1674,8 +1708,14 @@
       <c r="C17" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="E17" s="15">
+        <v>0</v>
+      </c>
+      <c r="F17" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="15">
         <v>13</v>
       </c>
@@ -1685,8 +1725,14 @@
       <c r="C18" s="14" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="E18" s="13">
+        <v>0</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="15">
         <v>14</v>
       </c>
@@ -1695,6 +1741,12 @@
       </c>
       <c r="C19" s="14" t="s">
         <v>49</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -1721,14 +1773,14 @@
     <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:G5 H5:XFD5">
+      <formula1>"KEY"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:G2 H2:XFD2">
       <formula1>"C,S,CS"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:G3 H3:XFD3">
       <formula1>"int,float,bool,string,list[int],list[float],list[string],map[int|int],map[int|float],map[int|string],map[string|int],map[string|float],map[string|string]"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:G5 H5:XFD5">
-      <formula1>"KEY"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel2Unity/Excel/InnstoryData/ItemCards.xlsx
+++ b/Excel2Unity/Excel/InnstoryData/ItemCards.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>卡牌ID</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
   <si>
     <t>cardEffect</t>
@@ -194,7 +197,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,7 +266,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,14 +309,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -247,15 +317,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,67 +333,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -358,6 +361,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -376,25 +409,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,102 +512,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,41 +657,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,22 +681,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,16 +719,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -769,133 +772,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1339,7 +1342,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1442,21 +1445,23 @@
       <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="C4" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
@@ -1466,7 +1471,7 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:12">
       <c r="A5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1485,11 +1490,11 @@
         <v>1</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" s="13">
         <v>3</v>
@@ -1509,13 +1514,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" s="15">
         <v>2</v>
@@ -1535,13 +1540,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" s="13">
         <v>0</v>
@@ -1555,13 +1560,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>26</v>
       </c>
       <c r="E9" s="15">
         <v>0</v>
@@ -1576,11 +1581,11 @@
         <v>5</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" s="13">
         <v>2</v>
@@ -1594,11 +1599,11 @@
         <v>6</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11" s="15">
         <v>2</v>
@@ -1612,13 +1617,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E12" s="13">
         <v>0</v>
@@ -1632,13 +1637,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E13" s="15">
         <v>0</v>
@@ -1652,10 +1657,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E14" s="13">
         <v>0</v>
@@ -1669,10 +1674,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E15" s="15">
         <v>0</v>
@@ -1686,10 +1691,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E16" s="13">
         <v>0</v>
@@ -1703,10 +1708,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E17" s="15">
         <v>0</v>
@@ -1720,10 +1725,10 @@
         <v>13</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E18" s="13">
         <v>0</v>
@@ -1737,10 +1742,10 @@
         <v>14</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E19" s="15">
         <v>0</v>
@@ -1773,11 +1778,11 @@
     <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:G2 H2:XFD2">
+      <formula1>"C,S,CS"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:G5 H5:XFD5">
       <formula1>"KEY"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:G2 H2:XFD2">
-      <formula1>"C,S,CS"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:G3 H3:XFD3">
       <formula1>"int,float,bool,string,list[int],list[float],list[string],map[int|int],map[int|float],map[int|string],map[string|int],map[string|float],map[string|string]"</formula1>

--- a/Excel2Unity/Excel/InnstoryData/ItemCards.xlsx
+++ b/Excel2Unity/Excel/InnstoryData/ItemCards.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>卡牌ID</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>description</t>
-  </si>
-  <si>
-    <t>KEY</t>
   </si>
   <si>
     <t>匕首</t>
@@ -176,10 +173,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -197,7 +194,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,6 +278,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -228,51 +302,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -301,38 +330,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -361,49 +358,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,12 +490,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -476,42 +509,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,11 +654,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,17 +708,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,51 +751,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -772,133 +769,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1342,7 +1339,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1470,9 +1467,7 @@
       <c r="L4" s="12"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:12">
-      <c r="A5" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -1490,11 +1485,11 @@
         <v>1</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="13">
         <v>3</v>
@@ -1514,13 +1509,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="D7" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>24</v>
       </c>
       <c r="E7" s="15">
         <v>2</v>
@@ -1540,13 +1535,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="D8" s="14" t="s">
         <v>26</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>27</v>
       </c>
       <c r="E8" s="13">
         <v>0</v>
@@ -1560,13 +1555,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>29</v>
-      </c>
       <c r="D9" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="15">
         <v>0</v>
@@ -1581,11 +1576,11 @@
         <v>5</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="13">
         <v>2</v>
@@ -1599,11 +1594,11 @@
         <v>6</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="15">
         <v>2</v>
@@ -1617,13 +1612,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="E12" s="13">
         <v>0</v>
@@ -1637,13 +1632,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="D13" s="14" t="s">
         <v>37</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>38</v>
       </c>
       <c r="E13" s="15">
         <v>0</v>
@@ -1657,10 +1652,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>40</v>
       </c>
       <c r="E14" s="13">
         <v>0</v>
@@ -1674,10 +1669,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>42</v>
       </c>
       <c r="E15" s="15">
         <v>0</v>
@@ -1691,10 +1686,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>43</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>44</v>
       </c>
       <c r="E16" s="13">
         <v>0</v>
@@ -1708,10 +1703,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>45</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>46</v>
       </c>
       <c r="E17" s="15">
         <v>0</v>
@@ -1725,10 +1720,10 @@
         <v>13</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>48</v>
       </c>
       <c r="E18" s="13">
         <v>0</v>
@@ -1742,10 +1737,10 @@
         <v>14</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>49</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>50</v>
       </c>
       <c r="E19" s="15">
         <v>0</v>
@@ -1778,11 +1773,11 @@
     <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:G5 H5:XFD5">
+      <formula1>"KEY"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:G2 H2:XFD2">
       <formula1>"C,S,CS"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:G5 H5:XFD5">
-      <formula1>"KEY"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:G3 H3:XFD3">
       <formula1>"int,float,bool,string,list[int],list[float],list[string],map[int|int],map[int|float],map[int|string],map[string|int],map[string|float],map[string|string]"</formula1>

--- a/Excel2Unity/Excel/InnstoryData/ItemCards.xlsx
+++ b/Excel2Unity/Excel/InnstoryData/ItemCards.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28710" windowHeight="12165"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
   <si>
     <t>卡牌ID</t>
   </si>
@@ -39,6 +39,9 @@
     <t>卡牌说明</t>
   </si>
   <si>
+    <t>预制体</t>
+  </si>
+  <si>
     <t>CS</t>
   </si>
   <si>
@@ -75,10 +78,16 @@
     <t>description</t>
   </si>
   <si>
+    <t>prefabPath</t>
+  </si>
+  <si>
     <t>匕首</t>
   </si>
   <si>
     <t>力量+1；闪避突袭：力量+3</t>
+  </si>
+  <si>
+    <t>prefab/1</t>
   </si>
   <si>
     <t>消防斧</t>
@@ -173,10 +182,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -193,8 +202,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,21 +307,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -231,8 +315,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -246,96 +345,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -358,181 +367,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,26 +663,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,41 +683,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -745,6 +704,56 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -757,10 +766,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -769,133 +778,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1334,12 +1343,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1376,7 +1385,9 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -1384,27 +1395,29 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:12">
       <c r="A2" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="8"/>
+      <c r="H2" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -1412,27 +1425,29 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:12">
       <c r="A3" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>10</v>
-      </c>
       <c r="G3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -1440,27 +1455,29 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="14.25" spans="1:12">
       <c r="A4" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
@@ -1485,11 +1502,11 @@
         <v>1</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6" s="13">
         <v>3</v>
@@ -1498,7 +1515,9 @@
         <v>0</v>
       </c>
       <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="H6" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="I6" s="16"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
@@ -1509,13 +1528,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E7" s="15">
         <v>2</v>
@@ -1524,30 +1543,35 @@
         <v>0</v>
       </c>
       <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="H7" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="I7" s="16"/>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8">
       <c r="A8" s="15">
         <v>3</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E8" s="13">
         <v>0</v>
       </c>
       <c r="F8">
         <v>2</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1555,13 +1579,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E9" s="15">
         <v>0</v>
@@ -1569,18 +1593,21 @@
       <c r="F9">
         <v>3</v>
       </c>
+      <c r="H9" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="I9" s="16"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:8">
       <c r="A10" s="15">
         <v>5</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E10" s="13">
         <v>2</v>
@@ -1588,17 +1615,20 @@
       <c r="F10" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="H10" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="15">
         <v>6</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E11" s="15">
         <v>2</v>
@@ -1606,19 +1636,22 @@
       <c r="F11" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="H11" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="13">
         <v>7</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E12" s="13">
         <v>0</v>
@@ -1626,19 +1659,22 @@
       <c r="F12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="H12" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="15">
         <v>8</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E13" s="15">
         <v>0</v>
@@ -1646,16 +1682,19 @@
       <c r="F13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="H13" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="13">
         <v>9</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E14" s="13">
         <v>0</v>
@@ -1663,16 +1702,19 @@
       <c r="F14" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="H14" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="15">
         <v>10</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E15" s="15">
         <v>0</v>
@@ -1680,16 +1722,19 @@
       <c r="F15" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="H15" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="15">
         <v>11</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E16" s="13">
         <v>0</v>
@@ -1697,16 +1742,19 @@
       <c r="F16" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="H16" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="13">
         <v>12</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E17" s="15">
         <v>0</v>
@@ -1714,16 +1762,19 @@
       <c r="F17" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="H17" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="15">
         <v>13</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E18" s="13">
         <v>0</v>
@@ -1731,16 +1782,19 @@
       <c r="F18" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="H18" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="15">
         <v>14</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E19" s="15">
         <v>0</v>
@@ -1748,39 +1802,66 @@
       <c r="F19" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="H19" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="13"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="8:8">
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="8:8">
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="8:8">
+      <c r="H23" s="13"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="$A4:$XFD4">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L3">
-    <cfRule type="cellIs" priority="2" operator="equal">
+  <conditionalFormatting sqref="H2">
+    <cfRule type="cellIs" priority="1" operator="equal">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:K3 M2:XFD3">
+  <conditionalFormatting sqref="H3">
+    <cfRule type="cellIs" priority="3" operator="equal">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L3">
     <cfRule type="cellIs" priority="6" operator="equal">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:K4 M4:XFD4">
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+  <conditionalFormatting sqref="A2:G3 I2:K3 M2:XFD3">
+    <cfRule type="cellIs" priority="10" operator="equal">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:G4 I4:K4 M4:XFD4">
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:G4 I4:XFD4">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:G5 H5:XFD5">
-      <formula1>"KEY"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:G3 H3 I3:XFD3">
+      <formula1>"int,float,bool,string,list[int],list[float],list[string],map[int|int],map[int|float],map[int|string],map[string|int],map[string|float],map[string|string]"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:G2 H2:XFD2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:G2 H2 I2:XFD2">
       <formula1>"C,S,CS"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:G3 H3:XFD3">
-      <formula1>"int,float,bool,string,list[int],list[float],list[string],map[int|int],map[int|float],map[int|string],map[string|int],map[string|float],map[string|string]"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:G5 H5 I5:XFD5">
+      <formula1>"KEY"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel2Unity/Excel/InnstoryData/ItemCards.xlsx
+++ b/Excel2Unity/Excel/InnstoryData/ItemCards.xlsx
@@ -87,7 +87,7 @@
     <t>力量+1；闪避突袭：力量+3</t>
   </si>
   <si>
-    <t>prefab/1</t>
+    <t>prefab/ItemCard</t>
   </si>
   <si>
     <t>消防斧</t>
@@ -182,10 +182,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -199,6 +199,44 @@
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,8 +248,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,6 +278,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -240,39 +332,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,67 +345,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -367,43 +367,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,12 +535,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -428,120 +542,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,11 +663,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,6 +698,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,56 +754,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -766,10 +766,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -778,133 +778,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1348,7 +1348,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1854,11 +1854,11 @@
     <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:G2 H2 I2:XFD2">
+      <formula1>"C,S,CS"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:G3 H3 I3:XFD3">
       <formula1>"int,float,bool,string,list[int],list[float],list[string],map[int|int],map[int|float],map[int|string],map[string|int],map[string|float],map[string|string]"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:G2 H2 I2:XFD2">
-      <formula1>"C,S,CS"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:G5 H5 I5:XFD5">
       <formula1>"KEY"</formula1>

--- a/Excel2Unity/Excel/InnstoryData/ItemCards.xlsx
+++ b/Excel2Unity/Excel/InnstoryData/ItemCards.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
   <si>
     <t>卡牌ID</t>
   </si>
@@ -36,6 +36,9 @@
     <t>充能</t>
   </si>
   <si>
+    <t>卡牌数量</t>
+  </si>
+  <si>
     <t>卡牌说明</t>
   </si>
   <si>
@@ -73,6 +76,9 @@
   </si>
   <si>
     <t>ChargePower</t>
+  </si>
+  <si>
+    <t>orginalNum</t>
   </si>
   <si>
     <t>description</t>
@@ -182,12 +188,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,7 +209,135 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,133 +352,12 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -367,181 +380,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,41 +676,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,10 +708,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -738,25 +734,42 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,10 +779,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -778,137 +791,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -941,10 +954,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -952,8 +965,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1343,27 +1365,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8:H19"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.125" customWidth="1"/>
     <col min="2" max="3" width="27" customWidth="1"/>
-    <col min="4" max="6" width="25.625" customWidth="1"/>
-    <col min="7" max="7" width="24.375" customWidth="1"/>
-    <col min="8" max="8" width="41.375" customWidth="1"/>
-    <col min="9" max="9" width="50.125" customWidth="1"/>
-    <col min="10" max="10" width="42.125" customWidth="1"/>
-    <col min="11" max="12" width="52.25" customWidth="1"/>
+    <col min="4" max="7" width="25.625" customWidth="1"/>
+    <col min="8" max="8" width="24.375" customWidth="1"/>
+    <col min="9" max="9" width="41.375" customWidth="1"/>
+    <col min="10" max="10" width="50.125" customWidth="1"/>
+    <col min="11" max="11" width="42.125" customWidth="1"/>
+    <col min="12" max="13" width="52.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:12">
+    <row r="1" s="1" customFormat="1" spans="1:13">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1388,102 +1410,114 @@
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5"/>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:12">
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:13">
       <c r="A2" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>8</v>
-      </c>
       <c r="H2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:12">
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:13">
       <c r="A3" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:12">
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:13">
       <c r="A4" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:12">
+        <v>21</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="14.25" spans="1:13">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1496,17 +1530,18 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:12">
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:13">
       <c r="A6" s="13">
         <v>1</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6" s="13">
         <v>3</v>
@@ -1514,55 +1549,61 @@
       <c r="F6" s="13">
         <v>0</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="13"/>
+      <c r="G6" s="15">
+        <v>2</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="19"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="1:12">
-      <c r="A7" s="15">
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:13">
+      <c r="A7" s="16">
         <v>2</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="16">
+        <v>2</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0</v>
+      </c>
+      <c r="G7" s="17">
+        <v>1</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="15">
-        <v>2</v>
-      </c>
-      <c r="F7" s="15">
-        <v>0</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="13"/>
+      <c r="J7" s="19"/>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="15">
+      <c r="M7" s="13"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="16">
         <v>3</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8" s="13">
         <v>0</v>
@@ -1570,44 +1611,50 @@
       <c r="F8">
         <v>2</v>
       </c>
-      <c r="H8" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="G8" s="17">
+        <v>1</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="13">
         <v>4</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="15">
+      <c r="E9" s="16">
         <v>0</v>
       </c>
       <c r="F9">
         <v>3</v>
       </c>
-      <c r="H9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="16"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="15">
+      <c r="G9" s="18">
+        <v>2</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="16">
         <v>5</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E10" s="13">
         <v>2</v>
@@ -1615,43 +1662,49 @@
       <c r="F10" s="13">
         <v>0</v>
       </c>
-      <c r="H10" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="15">
+      <c r="G10" s="17">
+        <v>2</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="16">
         <v>6</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="15">
+        <v>37</v>
+      </c>
+      <c r="E11" s="16">
         <v>2</v>
       </c>
-      <c r="F11" s="15">
-        <v>0</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+      <c r="G11" s="17">
+        <v>2</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="13">
         <v>7</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E12" s="13">
         <v>0</v>
@@ -1659,42 +1712,48 @@
       <c r="F12">
         <v>3</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="15">
+      <c r="G12" s="17">
+        <v>2</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="16">
         <v>8</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="15">
+        <v>42</v>
+      </c>
+      <c r="E13" s="16">
         <v>0</v>
       </c>
       <c r="F13">
         <v>2</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="G13" s="17">
+        <v>1</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="13">
         <v>9</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E14" s="13">
         <v>0</v>
@@ -1702,39 +1761,45 @@
       <c r="F14" s="13">
         <v>0</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="15">
+      <c r="G14" s="17">
+        <v>2</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="16">
         <v>10</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="15">
-        <v>0</v>
-      </c>
-      <c r="F15" s="15">
-        <v>0</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="15">
+        <v>46</v>
+      </c>
+      <c r="E15" s="16">
+        <v>0</v>
+      </c>
+      <c r="F15" s="16">
+        <v>0</v>
+      </c>
+      <c r="G15" s="17">
+        <v>2</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="16">
         <v>11</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E16" s="13">
         <v>0</v>
@@ -1742,39 +1807,45 @@
       <c r="F16" s="13">
         <v>0</v>
       </c>
-      <c r="H16" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="G16" s="17">
+        <v>2</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="13">
         <v>12</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="15">
-        <v>0</v>
-      </c>
-      <c r="F17" s="15">
-        <v>0</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="15">
+        <v>50</v>
+      </c>
+      <c r="E17" s="16">
+        <v>0</v>
+      </c>
+      <c r="F17" s="16">
+        <v>0</v>
+      </c>
+      <c r="G17" s="17">
+        <v>2</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="16">
         <v>13</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E18" s="13">
         <v>0</v>
@@ -1782,85 +1853,100 @@
       <c r="F18" s="13">
         <v>0</v>
       </c>
-      <c r="H18" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="15">
+      <c r="G18" s="17">
+        <v>1</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="16">
         <v>14</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="15">
-        <v>0</v>
-      </c>
-      <c r="F19" s="15">
-        <v>0</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="E19" s="16">
+        <v>0</v>
+      </c>
+      <c r="F19" s="16">
+        <v>0</v>
+      </c>
+      <c r="G19" s="17">
+        <v>2</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="13"/>
-      <c r="H20" s="13"/>
-    </row>
-    <row r="21" spans="8:8">
-      <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="8:8">
-      <c r="H22" s="13"/>
-    </row>
-    <row r="23" spans="8:8">
-      <c r="H23" s="13"/>
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="9:9">
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22" spans="9:9">
+      <c r="I22" s="13"/>
+    </row>
+    <row r="23" spans="9:9">
+      <c r="I23" s="13"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" priority="1" operator="equal">
+  <conditionalFormatting sqref="I2">
+    <cfRule type="cellIs" priority="4" operator="equal">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" priority="3" operator="equal">
-      <formula>""""""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L3">
+  <conditionalFormatting sqref="I3">
     <cfRule type="cellIs" priority="6" operator="equal">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:G3 I2:K3 M2:XFD3">
-    <cfRule type="cellIs" priority="10" operator="equal">
+  <conditionalFormatting sqref="G4">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4">
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G3">
+    <cfRule type="cellIs" priority="2" operator="equal">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:G4 I4:K4 M4:XFD4">
-    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+  <conditionalFormatting sqref="M2:M3">
+    <cfRule type="cellIs" priority="9" operator="equal">
+      <formula>""""""</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:G4 I4:XFD4">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  <conditionalFormatting sqref="A2:F3 H2:H3 N2:XFD3 J2:L3">
+    <cfRule type="cellIs" priority="13" operator="equal">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:F4 H4 J4:XFD4">
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:F4 H4 N4:XFD4 J4:L4">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:G2 H2 I2:XFD2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:F2 G2 H2 I2 J2:XFD2">
       <formula1>"C,S,CS"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:G3 H3 I3:XFD3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:F3 G3 H3 I3 J3:XFD3">
       <formula1>"int,float,bool,string,list[int],list[float],list[string],map[int|int],map[int|float],map[int|string],map[string|int],map[string|float],map[string|string]"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:G5 H5 I5:XFD5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:F5 G5 H5 I5 J5:XFD5">
       <formula1>"KEY"</formula1>
     </dataValidation>
   </dataValidations>
